--- a/master_data/master.xlsx
+++ b/master_data/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Data_Sharing\งาน Shop AIS+DTAC+TRU+งานประมูลอื่นๆ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a677022/Desktop/woodman/boq_app/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184BC6E-68E6-4440-AE17-ADB49A379589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C47CB-DB21-324E-AF5F-9C6DE853537F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7780" yWindow="6860" windowWidth="29040" windowHeight="15720" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sum Int.+ระบบ 8-04-68" sheetId="12" r:id="rId1"/>
@@ -42,23 +42,12 @@
     <definedName name="PRINT_TITLES_MI" localSheetId="0">#REF!</definedName>
     <definedName name="Print_Titles_MI">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="798">
   <si>
     <t>FOR :</t>
   </si>
@@ -2537,16 +2526,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="#,##0.00\ ;\-#,##0.00\ ;&quot; -&quot;#\ ;@\ "/>
-    <numFmt numFmtId="189" formatCode="mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="190" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
-    <numFmt numFmtId="191" formatCode="#,##0\ ;&quot; (&quot;#,##0\);&quot; -&quot;#\ ;@\ "/>
-    <numFmt numFmtId="192" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="193" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="194" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="195" formatCode="[$-1010409]dd\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ ;\-#,##0.00\ ;&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="166" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ ;&quot; (&quot;#,##0.00\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0\ ;&quot; (&quot;#,##0\);&quot; -&quot;#\ ;@\ "/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="[$-1010409]dd\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="108">
     <font>
@@ -2559,49 +2548,49 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2634,7 +2623,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4609,76 +4598,76 @@
   </borders>
   <cellStyleXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="193" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4735,12 +4724,12 @@
     <xf numFmtId="0" fontId="53" fillId="22" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="23" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="23" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4779,28 +4768,28 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -4816,42 +4805,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="75" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="75" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="83" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="192" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="523">
@@ -4900,15 +4889,15 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="28" fillId="0" borderId="24" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="24" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="15" applyFont="1"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="11" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="11" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4956,7 +4945,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
@@ -4974,7 +4963,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="16" applyFont="1"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="16" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5008,42 +4997,42 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="34" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="34" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="35" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="34" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="35" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="34" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="190" fontId="14" fillId="2" borderId="35" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="35" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="47" fillId="3" borderId="53" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="47" fillId="3" borderId="53" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="47" fillId="2" borderId="48" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="47" fillId="2" borderId="48" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="47" fillId="2" borderId="49" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="47" fillId="2" borderId="49" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="47" fillId="2" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="52" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5053,7 +5042,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="22" applyFill="1"/>
-    <xf numFmtId="190" fontId="70" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="70" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="34" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5079,22 +5068,22 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="71" fillId="2" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="71" fillId="2" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="72" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="72" fillId="2" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="71" fillId="2" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="71" fillId="2" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="71" fillId="2" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="71" fillId="2" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="43" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="43" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="41" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5118,7 +5107,7 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="42" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="45" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5145,7 +5134,7 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="70" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="70" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="70" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="16" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5164,7 +5153,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5191,7 +5180,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5203,13 +5192,13 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5218,7 +5207,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5230,7 +5219,7 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="81" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="81" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5239,10 +5228,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5251,10 +5240,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="63" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5296,7 +5285,7 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="39" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="69" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="69" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="39" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5305,34 +5294,34 @@
     <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="76" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="76" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="73" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="73" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="3" borderId="0" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="3" borderId="0" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="2" borderId="0" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="0" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="2" borderId="35" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="35" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="2" borderId="37" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="37" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="2" borderId="38" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="38" xfId="240" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="46" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="42" fillId="2" borderId="39" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5341,29 +5330,29 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="41" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="76" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="76" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="43" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="43" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="43" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="73" fillId="2" borderId="49" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="73" fillId="2" borderId="49" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="90" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="90" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="73" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="73" fillId="2" borderId="48" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="241" applyFill="1"/>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="47" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="47" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5371,148 +5360,148 @@
     </xf>
     <xf numFmtId="0" fontId="85" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="36" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="14" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="36" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="14" fillId="2" borderId="37" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="190" fontId="14" fillId="2" borderId="38" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="37" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="38" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="44" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="44" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="45" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="45" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="46" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="46" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="43" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="43" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="43" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="43" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="46" fillId="2" borderId="43" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="36" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="36" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="37" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="38" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="37" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="38" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="41" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="68" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="68" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="40" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="39" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="39" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="39" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="39" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="46" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="46" fillId="2" borderId="39" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="46" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="46" fillId="2" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="40" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="40" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="92" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="92" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5521,34 +5510,34 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="40" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="2" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="32" fillId="2" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="32" fillId="2" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="5" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="32" fillId="2" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="17" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="32" fillId="2" borderId="26" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="32" fillId="2" borderId="26" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="38" fillId="2" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="38" fillId="2" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="2" borderId="78" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="78" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5560,7 +5549,7 @@
     <xf numFmtId="0" fontId="89" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="89" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="89" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5578,10 +5567,10 @@
     <xf numFmtId="0" fontId="91" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5599,10 +5588,10 @@
     <xf numFmtId="0" fontId="89" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="89" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="89" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="89" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="89" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5617,10 +5606,10 @@
     <xf numFmtId="0" fontId="90" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5653,10 +5642,10 @@
     <xf numFmtId="0" fontId="92" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="92" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="92" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="2" borderId="78" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5671,10 +5660,10 @@
     <xf numFmtId="0" fontId="89" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="89" fillId="2" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="89" fillId="2" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="89" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="89" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5689,13 +5678,13 @@
     <xf numFmtId="0" fontId="90" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="93" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="93" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="93" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="93" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5710,10 +5699,10 @@
     <xf numFmtId="0" fontId="90" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5743,46 +5732,46 @@
     <xf numFmtId="0" fontId="91" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="68" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="68" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="96" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="96" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="87" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="87" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="191" fontId="97" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="97" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="98" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="97" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="97" fillId="2" borderId="37" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="98" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="44" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="44" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="43" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="41" fillId="2" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="88" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="99" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="88" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="99" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5812,31 +5801,31 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="101" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="101" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="101" fillId="2" borderId="43" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="46" fillId="2" borderId="45" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="46" fillId="2" borderId="45" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="101" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="101" fillId="2" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="41" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="41" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="0" borderId="93" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="0" borderId="93" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="101" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="101" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="46" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5845,16 +5834,16 @@
     <xf numFmtId="1" fontId="41" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="102" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="102" fillId="2" borderId="48" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="103" fillId="0" borderId="70" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="70" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="101" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="101" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="93" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="93" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="39" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5959,10 +5948,10 @@
     <xf numFmtId="0" fontId="90" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="91" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5992,28 +5981,28 @@
     <xf numFmtId="0" fontId="91" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="91" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="91" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="95" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="95" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="41" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="41" fillId="2" borderId="83" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="40" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="40" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="46" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="46" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="2" borderId="40" xfId="244" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6038,10 +6027,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="2" borderId="41" xfId="57" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="192" fontId="101" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="101" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="101" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="101" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6056,7 +6045,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="106" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6065,22 +6054,22 @@
     <xf numFmtId="0" fontId="86" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="101" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="101" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="101" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="101" fillId="2" borderId="67" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="90" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="90" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="46" fillId="2" borderId="85" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="46" fillId="2" borderId="85" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="41" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="41" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6098,10 +6087,10 @@
     <xf numFmtId="0" fontId="92" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="92" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="92" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="92" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="45" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6113,16 +6102,16 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="44" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="83" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="83" xfId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="191" fontId="103" fillId="0" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="103" fillId="0" borderId="24" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="107" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="98" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="98" fillId="2" borderId="47" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6131,7 +6120,7 @@
     <xf numFmtId="0" fontId="86" fillId="2" borderId="40" xfId="232" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="95" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="95" fillId="0" borderId="1" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="97" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6146,22 +6135,22 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="85" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="42" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="42" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="98" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="98" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="98" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="99" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="99" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="89" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="89" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6200,13 +6189,13 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="81" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="81" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="81" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="81" fillId="2" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="81" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="81" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6218,9 +6207,66 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="48" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="50" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="51" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="64" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="65" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="66" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="84" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="2" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="2" borderId="9" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="2" borderId="48" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="40" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="42" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="71" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="88" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="96" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="89" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="2" borderId="49" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6230,97 +6276,40 @@
     <xf numFmtId="0" fontId="73" fillId="2" borderId="51" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="88" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="49" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="96" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="50" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="89" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="47" fillId="2" borderId="51" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="42" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="71" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="86" fillId="2" borderId="87" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="1" xfId="27" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="86" fillId="2" borderId="91" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="48" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="41" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="49" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="50" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="51" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="64" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="65" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="66" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="84" fillId="2" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="71" fillId="2" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="71" fillId="2" borderId="9" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="40" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="2" borderId="42" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="49" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="50" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="47" fillId="2" borderId="51" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="42" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="86" fillId="2" borderId="87" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="86" fillId="2" borderId="91" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="41" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="41" fillId="2" borderId="42" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="8" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="9" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="98" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="98" fillId="2" borderId="39" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6389,6 +6378,7 @@
     <cellStyle name="Calculation 2" xfId="124" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Check Cell" xfId="125" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Check Cell 2" xfId="126" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 14" xfId="127" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Comma 17" xfId="128" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Comma 17 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -6425,6 +6415,7 @@
     <cellStyle name="Linked Cell 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
     <cellStyle name="Neutral" xfId="149" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="Neutral 2" xfId="150" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="151" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="Normal 12" xfId="152" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
     <cellStyle name="Normal 12 2" xfId="153" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
@@ -6533,8 +6524,6 @@
     <cellStyle name="เครื่องหมายจุลภาค_OPC-AC-Cost 3 2" xfId="242" xr:uid="{AB85D0B6-39CD-4F03-99C0-6FAA7500725F}"/>
     <cellStyle name="เครื่องหมายจุลภาค_OPC-AC-Cost_COST-EE 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="เครื่องหมายจุลภาค_OPC-AC-Cost_COST-EE 2 2" xfId="243" xr:uid="{F7CFC2C9-FA75-4E29-847B-F4DD8F70F346}"/>
-    <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="ปกติ 3" xfId="5" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="ปกติ 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
@@ -20104,9 +20093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20144,9 +20133,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20179,9 +20168,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20214,9 +20220,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20399,11 +20422,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="44" customWidth="1"/>
-    <col min="3" max="3" width="60.375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="18" style="45" customWidth="1"/>
     <col min="5" max="5" width="9" style="21"/>
     <col min="6" max="6" width="22" style="21" customWidth="1"/>
@@ -20463,13 +20486,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="467" t="s">
         <v>10</v>
       </c>
@@ -20481,7 +20504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="468"/>
       <c r="B11" s="471"/>
       <c r="C11" s="472"/>
@@ -20605,7 +20628,7 @@
       </c>
       <c r="D24" s="39"/>
     </row>
-    <row r="25" spans="1:6" ht="22.5">
+    <row r="25" spans="1:6">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="21" t="s">
@@ -20641,18 +20664,18 @@
   <dimension ref="A1:I316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="135" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="135" customWidth="1"/>
     <col min="2" max="2" width="7" style="136" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="136" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="135" customWidth="1"/>
-    <col min="6" max="8" width="10.625" style="137" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="136" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="136" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="136" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" style="135" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" style="137" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="136" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="136" customWidth="1"/>
     <col min="11" max="16384" width="9" style="136"/>
   </cols>
   <sheetData>
@@ -20719,14 +20742,16 @@
       <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:9" ht="6.75" customHeight="1"/>
-    <row r="9" spans="1:9" s="139" customFormat="1" ht="22.5">
+    <row r="9" spans="1:9" s="139" customFormat="1">
       <c r="A9" s="483" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="475" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="477"/>
+      <c r="C9" s="477" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="475" t="s">
         <v>55</v>
       </c>
@@ -20742,7 +20767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="139" customFormat="1" ht="22.5">
+    <row r="10" spans="1:9" s="139" customFormat="1">
       <c r="A10" s="484"/>
       <c r="B10" s="476"/>
       <c r="C10" s="478"/>
@@ -25300,7 +25325,7 @@
       <c r="H272" s="398"/>
       <c r="I272" s="399"/>
     </row>
-    <row r="273" spans="1:9" ht="22.5" thickBot="1">
+    <row r="273" spans="1:9" ht="20" thickBot="1">
       <c r="A273" s="264"/>
       <c r="B273" s="264"/>
       <c r="C273" s="265"/>
@@ -25311,7 +25336,7 @@
       <c r="H273" s="267"/>
       <c r="I273" s="268"/>
     </row>
-    <row r="274" spans="1:9" ht="24" thickTop="1" thickBot="1">
+    <row r="274" spans="1:9" ht="21" thickTop="1" thickBot="1">
       <c r="A274" s="270"/>
       <c r="B274" s="271" t="s">
         <v>2</v>
@@ -25327,7 +25352,7 @@
       <c r="H274" s="274"/>
       <c r="I274" s="275"/>
     </row>
-    <row r="275" spans="1:9" ht="23.25" thickTop="1">
+    <row r="275" spans="1:9" ht="20" thickTop="1">
       <c r="A275" s="286">
         <v>8</v>
       </c>
@@ -25703,7 +25728,7 @@
       <c r="H294" s="280"/>
       <c r="I294" s="281"/>
     </row>
-    <row r="295" spans="1:9" ht="22.5" thickBot="1">
+    <row r="295" spans="1:9" ht="20" thickBot="1">
       <c r="A295" s="400"/>
       <c r="B295" s="403"/>
       <c r="C295" s="404"/>
@@ -25714,7 +25739,7 @@
       <c r="H295" s="292"/>
       <c r="I295" s="293"/>
     </row>
-    <row r="296" spans="1:9" ht="24" thickTop="1" thickBot="1">
+    <row r="296" spans="1:9" ht="21" thickTop="1" thickBot="1">
       <c r="A296" s="294"/>
       <c r="B296" s="295" t="s">
         <v>2</v>
@@ -25730,7 +25755,7 @@
       <c r="H296" s="298"/>
       <c r="I296" s="299"/>
     </row>
-    <row r="297" spans="1:9" ht="23.25" thickTop="1">
+    <row r="297" spans="1:9" ht="20" thickTop="1">
       <c r="A297" s="258">
         <v>9</v>
       </c>
@@ -26000,7 +26025,7 @@
       <c r="H312" s="305"/>
       <c r="I312" s="306"/>
     </row>
-    <row r="313" spans="1:9" ht="22.5" thickBot="1">
+    <row r="313" spans="1:9" ht="20" thickBot="1">
       <c r="A313" s="264"/>
       <c r="B313" s="264"/>
       <c r="C313" s="265"/>
@@ -26011,7 +26036,7 @@
       <c r="H313" s="267"/>
       <c r="I313" s="268"/>
     </row>
-    <row r="314" spans="1:9" ht="24" thickTop="1" thickBot="1">
+    <row r="314" spans="1:9" ht="21" thickTop="1" thickBot="1">
       <c r="A314" s="270"/>
       <c r="B314" s="271" t="s">
         <v>2</v>
@@ -26027,7 +26052,7 @@
       <c r="H314" s="274"/>
       <c r="I314" s="275"/>
     </row>
-    <row r="315" spans="1:9" ht="26.25" thickTop="1" thickBot="1">
+    <row r="315" spans="1:9" ht="24" thickTop="1" thickBot="1">
       <c r="A315" s="320"/>
       <c r="B315" s="321"/>
       <c r="C315" s="321"/>
@@ -26038,7 +26063,7 @@
       <c r="H315" s="324"/>
       <c r="I315" s="325"/>
     </row>
-    <row r="316" spans="1:9" ht="22.5" thickTop="1">
+    <row r="316" spans="1:9" ht="20" thickTop="1">
       <c r="A316" s="408"/>
       <c r="B316" s="269"/>
       <c r="C316" s="269"/>
@@ -26083,17 +26108,17 @@
       <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="184" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="184" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="184" customWidth="1"/>
-    <col min="3" max="3" width="3.875" style="184" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" style="184" customWidth="1"/>
     <col min="4" max="4" width="9" style="184"/>
-    <col min="5" max="5" width="35.375" style="184" customWidth="1"/>
-    <col min="6" max="7" width="6.875" style="184" customWidth="1"/>
-    <col min="8" max="11" width="10.875" style="184" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="184" customWidth="1"/>
-    <col min="13" max="13" width="2.625" style="184" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="184" customWidth="1"/>
+    <col min="6" max="7" width="6.83203125" style="184" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="184" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="184" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="184" customWidth="1"/>
     <col min="14" max="16384" width="9" style="184"/>
   </cols>
   <sheetData>
@@ -26125,8 +26150,8 @@
       <c r="G2" s="60"/>
       <c r="H2" s="78"/>
       <c r="I2" s="78"/>
-      <c r="J2" s="504"/>
-      <c r="K2" s="504"/>
+      <c r="J2" s="492"/>
+      <c r="K2" s="492"/>
       <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:13" s="79" customFormat="1" ht="18.75" customHeight="1">
@@ -26143,8 +26168,8 @@
       <c r="G3" s="60"/>
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="504"/>
+      <c r="J3" s="492"/>
+      <c r="K3" s="492"/>
       <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:13" s="84" customFormat="1" ht="18.75" customHeight="1">
@@ -26194,44 +26219,44 @@
       <c r="L6" s="170"/>
       <c r="M6" s="154"/>
     </row>
-    <row r="7" spans="1:13" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="493" t="s">
+    <row r="7" spans="1:13" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="498" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="493" t="s">
+      <c r="B7" s="498" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="494" t="s">
+      <c r="C7" s="499" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="494"/>
-      <c r="E7" s="494"/>
-      <c r="F7" s="493" t="s">
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
+      <c r="F7" s="498" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="493" t="s">
+      <c r="G7" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="505" t="s">
+      <c r="H7" s="493" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="506"/>
-      <c r="J7" s="505" t="s">
+      <c r="I7" s="494"/>
+      <c r="J7" s="493" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="506"/>
+      <c r="K7" s="494"/>
       <c r="L7" s="88" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="493"/>
-      <c r="B8" s="493"/>
-      <c r="C8" s="494"/>
-      <c r="D8" s="494"/>
-      <c r="E8" s="494"/>
-      <c r="F8" s="495"/>
-      <c r="G8" s="496"/>
+    <row r="8" spans="1:13" s="89" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="498"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="499"/>
+      <c r="D8" s="499"/>
+      <c r="E8" s="499"/>
+      <c r="F8" s="500"/>
+      <c r="G8" s="501"/>
       <c r="H8" s="90" t="s">
         <v>22</v>
       </c>
@@ -26248,7 +26273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="368" customFormat="1" ht="20.65" customHeight="1">
+    <row r="9" spans="1:13" s="368" customFormat="1" ht="20.75" customHeight="1">
       <c r="A9" s="364">
         <v>1</v>
       </c>
@@ -26266,7 +26291,7 @@
       <c r="K9" s="175"/>
       <c r="L9" s="174"/>
     </row>
-    <row r="10" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="10" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A10" s="246"/>
       <c r="B10" s="247" t="s">
         <v>150</v>
@@ -26292,7 +26317,7 @@
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
     </row>
-    <row r="11" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="11" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A11" s="246"/>
       <c r="B11" s="247" t="s">
         <v>376</v>
@@ -26318,7 +26343,7 @@
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
     </row>
-    <row r="12" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="12" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A12" s="246"/>
       <c r="B12" s="247" t="s">
         <v>379</v>
@@ -26344,7 +26369,7 @@
       <c r="K12" s="93"/>
       <c r="L12" s="93"/>
     </row>
-    <row r="13" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="13" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A13" s="246"/>
       <c r="B13" s="247" t="s">
         <v>600</v>
@@ -26370,7 +26395,7 @@
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
     </row>
-    <row r="14" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="14" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A14" s="246"/>
       <c r="B14" s="247" t="s">
         <v>376</v>
@@ -26396,7 +26421,7 @@
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
     </row>
-    <row r="15" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="15" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A15" s="246"/>
       <c r="B15" s="247" t="s">
         <v>598</v>
@@ -26422,7 +26447,7 @@
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
     </row>
-    <row r="16" spans="1:13" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="16" spans="1:13" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A16" s="246"/>
       <c r="B16" s="247" t="s">
         <v>598</v>
@@ -26448,7 +26473,7 @@
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
     </row>
-    <row r="17" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="17" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A17" s="246"/>
       <c r="B17" s="247" t="s">
         <v>716</v>
@@ -26474,7 +26499,7 @@
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
     </row>
-    <row r="18" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="18" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A18" s="246"/>
       <c r="B18" s="247" t="s">
         <v>380</v>
@@ -26498,7 +26523,7 @@
       <c r="K18" s="93"/>
       <c r="L18" s="93"/>
     </row>
-    <row r="19" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="19" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A19" s="246"/>
       <c r="B19" s="247" t="s">
         <v>410</v>
@@ -26524,7 +26549,7 @@
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
     </row>
-    <row r="20" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="20" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A20" s="246"/>
       <c r="B20" s="247" t="s">
         <v>410</v>
@@ -26550,7 +26575,7 @@
       <c r="K20" s="93"/>
       <c r="L20" s="93"/>
     </row>
-    <row r="21" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="21" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A21" s="246"/>
       <c r="B21" s="247" t="s">
         <v>710</v>
@@ -26576,7 +26601,7 @@
       <c r="K21" s="93"/>
       <c r="L21" s="93"/>
     </row>
-    <row r="22" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="22" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A22" s="246"/>
       <c r="B22" s="247" t="s">
         <v>412</v>
@@ -26602,7 +26627,7 @@
       <c r="K22" s="93"/>
       <c r="L22" s="93"/>
     </row>
-    <row r="23" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="23" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A23" s="246"/>
       <c r="B23" s="247" t="s">
         <v>414</v>
@@ -26628,7 +26653,7 @@
       <c r="K23" s="93"/>
       <c r="L23" s="93"/>
     </row>
-    <row r="24" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="24" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A24" s="246"/>
       <c r="B24" s="158" t="s">
         <v>416</v>
@@ -26654,7 +26679,7 @@
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
     </row>
-    <row r="25" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="25" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A25" s="246"/>
       <c r="B25" s="455" t="s">
         <v>714</v>
@@ -26680,7 +26705,7 @@
       <c r="K25" s="93"/>
       <c r="L25" s="93"/>
     </row>
-    <row r="26" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="26" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A26" s="246"/>
       <c r="B26" s="247" t="s">
         <v>418</v>
@@ -26706,7 +26731,7 @@
       <c r="K26" s="93"/>
       <c r="L26" s="93"/>
     </row>
-    <row r="27" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="27" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A27" s="246"/>
       <c r="B27" s="247" t="s">
         <v>602</v>
@@ -26732,7 +26757,7 @@
       <c r="K27" s="93"/>
       <c r="L27" s="93"/>
     </row>
-    <row r="28" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="28" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A28" s="246"/>
       <c r="B28" s="247" t="s">
         <v>420</v>
@@ -26758,7 +26783,7 @@
       <c r="K28" s="93"/>
       <c r="L28" s="93"/>
     </row>
-    <row r="29" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="29" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A29" s="246"/>
       <c r="B29" s="247" t="s">
         <v>410</v>
@@ -26784,7 +26809,7 @@
       <c r="K29" s="93"/>
       <c r="L29" s="93"/>
     </row>
-    <row r="30" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="30" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A30" s="246"/>
       <c r="B30" s="247"/>
       <c r="C30" s="155"/>
@@ -26798,7 +26823,7 @@
       <c r="K30" s="93"/>
       <c r="L30" s="93"/>
     </row>
-    <row r="31" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1">
+    <row r="31" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1">
       <c r="A31" s="246"/>
       <c r="B31" s="247"/>
       <c r="C31" s="155"/>
@@ -26812,7 +26837,7 @@
       <c r="K31" s="93"/>
       <c r="L31" s="93"/>
     </row>
-    <row r="32" spans="1:12" s="176" customFormat="1" ht="20.65" customHeight="1" thickBot="1">
+    <row r="32" spans="1:12" s="176" customFormat="1" ht="20.75" customHeight="1" thickBot="1">
       <c r="A32" s="246"/>
       <c r="B32" s="247"/>
       <c r="C32" s="155"/>
@@ -26826,14 +26851,14 @@
       <c r="K32" s="93"/>
       <c r="L32" s="93"/>
     </row>
-    <row r="33" spans="1:213" s="374" customFormat="1" ht="20.65" customHeight="1" thickTop="1" thickBot="1">
+    <row r="33" spans="1:213" s="374" customFormat="1" ht="20.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A33" s="369"/>
       <c r="B33" s="370"/>
-      <c r="C33" s="498" t="s">
+      <c r="C33" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="499"/>
-      <c r="E33" s="500"/>
+      <c r="D33" s="487"/>
+      <c r="E33" s="488"/>
       <c r="F33" s="371"/>
       <c r="G33" s="371"/>
       <c r="H33" s="178"/>
@@ -27043,16 +27068,16 @@
       <c r="HD33" s="373"/>
       <c r="HE33" s="373"/>
     </row>
-    <row r="34" spans="1:213" s="366" customFormat="1" ht="20.65" customHeight="1" thickTop="1">
+    <row r="34" spans="1:213" s="366" customFormat="1" ht="20.75" customHeight="1" thickTop="1">
       <c r="A34" s="364">
         <v>2</v>
       </c>
       <c r="B34" s="375"/>
-      <c r="C34" s="501" t="s">
+      <c r="C34" s="489" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="502"/>
-      <c r="E34" s="503"/>
+      <c r="D34" s="490"/>
+      <c r="E34" s="491"/>
       <c r="F34" s="376"/>
       <c r="G34" s="376"/>
       <c r="H34" s="180"/>
@@ -27062,7 +27087,7 @@
       <c r="L34" s="333"/>
       <c r="M34" s="377"/>
     </row>
-    <row r="35" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="35" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A35" s="346"/>
       <c r="B35" s="378" t="s">
         <v>116</v>
@@ -27089,7 +27114,7 @@
       <c r="L35" s="93"/>
       <c r="M35" s="380"/>
     </row>
-    <row r="36" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="36" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A36" s="346"/>
       <c r="B36" s="378" t="s">
         <v>85</v>
@@ -27116,7 +27141,7 @@
       <c r="L36" s="93"/>
       <c r="M36" s="380"/>
     </row>
-    <row r="37" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="37" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A37" s="346"/>
       <c r="B37" s="378" t="s">
         <v>423</v>
@@ -27143,7 +27168,7 @@
       <c r="L37" s="93"/>
       <c r="M37" s="380"/>
     </row>
-    <row r="38" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="38" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A38" s="346"/>
       <c r="B38" s="378" t="s">
         <v>424</v>
@@ -27170,7 +27195,7 @@
       <c r="L38" s="93"/>
       <c r="M38" s="380"/>
     </row>
-    <row r="39" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="39" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A39" s="346"/>
       <c r="B39" s="378" t="s">
         <v>718</v>
@@ -27197,7 +27222,7 @@
       <c r="L39" s="93"/>
       <c r="M39" s="380"/>
     </row>
-    <row r="40" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="40" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A40" s="346"/>
       <c r="B40" s="378" t="s">
         <v>86</v>
@@ -27224,7 +27249,7 @@
       <c r="L40" s="93"/>
       <c r="M40" s="380"/>
     </row>
-    <row r="41" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="41" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A41" s="346"/>
       <c r="B41" s="378" t="s">
         <v>152</v>
@@ -27251,7 +27276,7 @@
       <c r="L41" s="93"/>
       <c r="M41" s="380"/>
     </row>
-    <row r="42" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="42" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A42" s="346"/>
       <c r="B42" s="378" t="s">
         <v>787</v>
@@ -27276,7 +27301,7 @@
       <c r="L42" s="93"/>
       <c r="M42" s="380"/>
     </row>
-    <row r="43" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="43" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A43" s="346"/>
       <c r="B43" s="378"/>
       <c r="C43" s="155"/>
@@ -27293,7 +27318,7 @@
       <c r="L43" s="93"/>
       <c r="M43" s="380"/>
     </row>
-    <row r="44" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="44" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A44" s="346"/>
       <c r="B44" s="378" t="s">
         <v>791</v>
@@ -27314,7 +27339,7 @@
       <c r="L44" s="93"/>
       <c r="M44" s="380"/>
     </row>
-    <row r="45" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1" thickBot="1">
+    <row r="45" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1" thickBot="1">
       <c r="A45" s="346"/>
       <c r="B45" s="378"/>
       <c r="C45" s="155"/>
@@ -27329,14 +27354,14 @@
       <c r="L45" s="93"/>
       <c r="M45" s="380"/>
     </row>
-    <row r="46" spans="1:213" s="373" customFormat="1" ht="20.65" customHeight="1" thickTop="1" thickBot="1">
+    <row r="46" spans="1:213" s="373" customFormat="1" ht="20.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A46" s="369"/>
       <c r="B46" s="369"/>
-      <c r="C46" s="485" t="s">
+      <c r="C46" s="495" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="485"/>
-      <c r="E46" s="485"/>
+      <c r="D46" s="495"/>
+      <c r="E46" s="495"/>
       <c r="F46" s="371"/>
       <c r="G46" s="371"/>
       <c r="H46" s="166"/>
@@ -27346,7 +27371,7 @@
       <c r="L46" s="181"/>
       <c r="M46" s="372"/>
     </row>
-    <row r="47" spans="1:213" s="366" customFormat="1" ht="20.65" customHeight="1" thickTop="1">
+    <row r="47" spans="1:213" s="366" customFormat="1" ht="20.75" customHeight="1" thickTop="1">
       <c r="A47" s="364">
         <v>3</v>
       </c>
@@ -27364,7 +27389,7 @@
       <c r="K47" s="180"/>
       <c r="L47" s="180"/>
     </row>
-    <row r="48" spans="1:213" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="48" spans="1:213" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A48" s="346"/>
       <c r="B48" s="378" t="s">
         <v>102</v>
@@ -27390,7 +27415,7 @@
       <c r="K48" s="93"/>
       <c r="L48" s="93"/>
     </row>
-    <row r="49" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="49" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A49" s="383"/>
       <c r="B49" s="378" t="s">
         <v>87</v>
@@ -27416,7 +27441,7 @@
       <c r="K49" s="93"/>
       <c r="L49" s="93"/>
     </row>
-    <row r="50" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="50" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A50" s="383"/>
       <c r="B50" s="378" t="s">
         <v>426</v>
@@ -27442,7 +27467,7 @@
       <c r="K50" s="93"/>
       <c r="L50" s="93"/>
     </row>
-    <row r="51" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="51" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A51" s="383"/>
       <c r="B51" s="378" t="s">
         <v>720</v>
@@ -27468,7 +27493,7 @@
       <c r="K51" s="93"/>
       <c r="L51" s="93"/>
     </row>
-    <row r="52" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="52" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A52" s="383"/>
       <c r="B52" s="378" t="s">
         <v>428</v>
@@ -27494,7 +27519,7 @@
       <c r="K52" s="93"/>
       <c r="L52" s="93"/>
     </row>
-    <row r="53" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="53" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A53" s="383"/>
       <c r="B53" s="378" t="s">
         <v>462</v>
@@ -27520,7 +27545,7 @@
       <c r="K53" s="93"/>
       <c r="L53" s="93"/>
     </row>
-    <row r="54" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="54" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A54" s="383"/>
       <c r="B54" s="378" t="s">
         <v>430</v>
@@ -27546,7 +27571,7 @@
       <c r="K54" s="93"/>
       <c r="L54" s="93"/>
     </row>
-    <row r="55" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="55" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A55" s="383"/>
       <c r="B55" s="378" t="s">
         <v>604</v>
@@ -27572,7 +27597,7 @@
       <c r="K55" s="93"/>
       <c r="L55" s="93"/>
     </row>
-    <row r="56" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="56" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A56" s="383"/>
       <c r="B56" s="378"/>
       <c r="C56" s="156"/>
@@ -27586,7 +27611,7 @@
       <c r="K56" s="93"/>
       <c r="L56" s="93"/>
     </row>
-    <row r="57" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1" thickBot="1">
+    <row r="57" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1" thickBot="1">
       <c r="A57" s="383"/>
       <c r="B57" s="378"/>
       <c r="C57" s="156"/>
@@ -27600,14 +27625,14 @@
       <c r="K57" s="93"/>
       <c r="L57" s="93"/>
     </row>
-    <row r="58" spans="1:12" s="373" customFormat="1" ht="20.65" customHeight="1" thickTop="1" thickBot="1">
+    <row r="58" spans="1:12" s="373" customFormat="1" ht="20.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A58" s="369"/>
       <c r="B58" s="369"/>
-      <c r="C58" s="485" t="s">
+      <c r="C58" s="495" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="485"/>
-      <c r="E58" s="485"/>
+      <c r="D58" s="495"/>
+      <c r="E58" s="495"/>
       <c r="F58" s="371"/>
       <c r="G58" s="371"/>
       <c r="H58" s="166"/>
@@ -27616,7 +27641,7 @@
       <c r="K58" s="166"/>
       <c r="L58" s="167"/>
     </row>
-    <row r="59" spans="1:12" s="366" customFormat="1" ht="20.65" customHeight="1" thickTop="1">
+    <row r="59" spans="1:12" s="366" customFormat="1" ht="20.75" customHeight="1" thickTop="1">
       <c r="A59" s="385">
         <v>4</v>
       </c>
@@ -27634,7 +27659,7 @@
       <c r="K59" s="163"/>
       <c r="L59" s="163"/>
     </row>
-    <row r="60" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="60" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A60" s="346"/>
       <c r="B60" s="378" t="s">
         <v>160</v>
@@ -27686,7 +27711,7 @@
       <c r="K61" s="93"/>
       <c r="L61" s="93"/>
     </row>
-    <row r="62" spans="1:12" s="114" customFormat="1" ht="20.65" customHeight="1">
+    <row r="62" spans="1:12" s="114" customFormat="1" ht="20.75" customHeight="1">
       <c r="A62" s="113"/>
       <c r="B62" s="158"/>
       <c r="C62" s="155"/>
@@ -27702,7 +27727,7 @@
       <c r="K62" s="93"/>
       <c r="L62" s="93"/>
     </row>
-    <row r="63" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="63" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A63" s="346"/>
       <c r="B63" s="158" t="s">
         <v>242</v>
@@ -27728,7 +27753,7 @@
       <c r="K63" s="93"/>
       <c r="L63" s="93"/>
     </row>
-    <row r="64" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="64" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A64" s="346"/>
       <c r="B64" s="158"/>
       <c r="C64" s="155"/>
@@ -27770,7 +27795,7 @@
       <c r="K65" s="93"/>
       <c r="L65" s="93"/>
     </row>
-    <row r="66" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="66" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A66" s="346"/>
       <c r="B66" s="378"/>
       <c r="C66" s="155"/>
@@ -27786,7 +27811,7 @@
       <c r="K66" s="93"/>
       <c r="L66" s="93"/>
     </row>
-    <row r="67" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="67" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A67" s="346"/>
       <c r="B67" s="378" t="s">
         <v>104</v>
@@ -27812,7 +27837,7 @@
       <c r="K67" s="93"/>
       <c r="L67" s="93"/>
     </row>
-    <row r="68" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="68" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A68" s="346"/>
       <c r="B68" s="378"/>
       <c r="C68" s="155"/>
@@ -27828,7 +27853,7 @@
       <c r="K68" s="93"/>
       <c r="L68" s="93"/>
     </row>
-    <row r="69" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="69" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A69" s="346"/>
       <c r="B69" s="378" t="s">
         <v>275</v>
@@ -27854,7 +27879,7 @@
       <c r="K69" s="93"/>
       <c r="L69" s="93"/>
     </row>
-    <row r="70" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="70" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A70" s="346"/>
       <c r="B70" s="378"/>
       <c r="C70" s="155"/>
@@ -27870,7 +27895,7 @@
       <c r="K70" s="93"/>
       <c r="L70" s="93"/>
     </row>
-    <row r="71" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="71" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A71" s="346"/>
       <c r="B71" s="378" t="s">
         <v>278</v>
@@ -27896,7 +27921,7 @@
       <c r="K71" s="93"/>
       <c r="L71" s="93"/>
     </row>
-    <row r="72" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="72" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A72" s="346"/>
       <c r="B72" s="378"/>
       <c r="C72" s="155"/>
@@ -27912,7 +27937,7 @@
       <c r="K72" s="416"/>
       <c r="L72" s="93"/>
     </row>
-    <row r="73" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="73" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A73" s="346"/>
       <c r="B73" s="378" t="s">
         <v>281</v>
@@ -27932,11 +27957,11 @@
         <v>220</v>
       </c>
       <c r="I73" s="92"/>
-      <c r="J73" s="507"/>
-      <c r="K73" s="508"/>
+      <c r="J73" s="496"/>
+      <c r="K73" s="497"/>
       <c r="L73" s="93"/>
     </row>
-    <row r="74" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="74" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A74" s="346"/>
       <c r="B74" s="378" t="s">
         <v>432</v>
@@ -27956,11 +27981,11 @@
         <v>220</v>
       </c>
       <c r="I74" s="92"/>
-      <c r="J74" s="507"/>
-      <c r="K74" s="508"/>
+      <c r="J74" s="496"/>
+      <c r="K74" s="497"/>
       <c r="L74" s="93"/>
     </row>
-    <row r="75" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="75" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A75" s="346"/>
       <c r="B75" s="378" t="s">
         <v>118</v>
@@ -27980,11 +28005,11 @@
         <v>1342</v>
       </c>
       <c r="I75" s="92"/>
-      <c r="J75" s="507"/>
-      <c r="K75" s="508"/>
+      <c r="J75" s="496"/>
+      <c r="K75" s="497"/>
       <c r="L75" s="93"/>
     </row>
-    <row r="76" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="76" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A76" s="346"/>
       <c r="B76" s="378" t="s">
         <v>103</v>
@@ -28004,11 +28029,11 @@
         <v>583</v>
       </c>
       <c r="I76" s="92"/>
-      <c r="J76" s="507"/>
-      <c r="K76" s="508"/>
+      <c r="J76" s="496"/>
+      <c r="K76" s="497"/>
       <c r="L76" s="93"/>
     </row>
-    <row r="77" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="77" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A77" s="346"/>
       <c r="B77" s="378" t="s">
         <v>359</v>
@@ -28032,7 +28057,7 @@
       <c r="K77" s="93"/>
       <c r="L77" s="93"/>
     </row>
-    <row r="78" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="78" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A78" s="346"/>
       <c r="B78" s="378" t="s">
         <v>361</v>
@@ -28054,7 +28079,7 @@
       <c r="K78" s="93"/>
       <c r="L78" s="93"/>
     </row>
-    <row r="79" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="79" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A79" s="346"/>
       <c r="B79" s="378"/>
       <c r="C79" s="155"/>
@@ -28070,7 +28095,7 @@
       <c r="K79" s="93"/>
       <c r="L79" s="93"/>
     </row>
-    <row r="80" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="80" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A80" s="346"/>
       <c r="B80" s="378" t="s">
         <v>364</v>
@@ -28092,7 +28117,7 @@
       <c r="K80" s="93"/>
       <c r="L80" s="93"/>
     </row>
-    <row r="81" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="81" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A81" s="346"/>
       <c r="B81" s="378"/>
       <c r="C81" s="155"/>
@@ -28108,7 +28133,7 @@
       <c r="K81" s="93"/>
       <c r="L81" s="93"/>
     </row>
-    <row r="82" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="82" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A82" s="346"/>
       <c r="B82" s="378"/>
       <c r="C82" s="155"/>
@@ -28124,7 +28149,7 @@
       <c r="K82" s="93"/>
       <c r="L82" s="93"/>
     </row>
-    <row r="83" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="83" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A83" s="346"/>
       <c r="B83" s="378" t="s">
         <v>314</v>
@@ -28146,7 +28171,7 @@
       <c r="K83" s="93"/>
       <c r="L83" s="93"/>
     </row>
-    <row r="84" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="84" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A84" s="346"/>
       <c r="B84" s="378"/>
       <c r="C84" s="155"/>
@@ -28162,7 +28187,7 @@
       <c r="K84" s="93"/>
       <c r="L84" s="93"/>
     </row>
-    <row r="85" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="85" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A85" s="346"/>
       <c r="B85" s="378" t="s">
         <v>370</v>
@@ -28184,7 +28209,7 @@
       <c r="K85" s="93"/>
       <c r="L85" s="93"/>
     </row>
-    <row r="86" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="86" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A86" s="346"/>
       <c r="B86" s="378"/>
       <c r="C86" s="155"/>
@@ -28200,7 +28225,7 @@
       <c r="K86" s="93"/>
       <c r="L86" s="93"/>
     </row>
-    <row r="87" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="87" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A87" s="346"/>
       <c r="B87" s="378" t="s">
         <v>549</v>
@@ -28226,7 +28251,7 @@
       <c r="K87" s="93"/>
       <c r="L87" s="93"/>
     </row>
-    <row r="88" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="88" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A88" s="346"/>
       <c r="B88" s="378"/>
       <c r="C88" s="155"/>
@@ -28242,7 +28267,7 @@
       <c r="K88" s="93"/>
       <c r="L88" s="93"/>
     </row>
-    <row r="89" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="89" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A89" s="346"/>
       <c r="B89" s="378" t="s">
         <v>552</v>
@@ -28268,7 +28293,7 @@
       <c r="K89" s="93"/>
       <c r="L89" s="93"/>
     </row>
-    <row r="90" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="90" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A90" s="346"/>
       <c r="B90" s="378"/>
       <c r="C90" s="155"/>
@@ -28284,7 +28309,7 @@
       <c r="K90" s="93"/>
       <c r="L90" s="93"/>
     </row>
-    <row r="91" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="91" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A91" s="346"/>
       <c r="B91" s="378"/>
       <c r="C91" s="155"/>
@@ -28300,7 +28325,7 @@
       <c r="K91" s="93"/>
       <c r="L91" s="93"/>
     </row>
-    <row r="92" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="92" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A92" s="346"/>
       <c r="B92" s="378" t="s">
         <v>606</v>
@@ -28326,7 +28351,7 @@
       <c r="K92" s="93"/>
       <c r="L92" s="93"/>
     </row>
-    <row r="93" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="93" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A93" s="346"/>
       <c r="B93" s="378"/>
       <c r="C93" s="155"/>
@@ -28342,7 +28367,7 @@
       <c r="K93" s="93"/>
       <c r="L93" s="93"/>
     </row>
-    <row r="94" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="94" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A94" s="346"/>
       <c r="B94" s="378" t="s">
         <v>609</v>
@@ -28368,7 +28393,7 @@
       <c r="K94" s="93"/>
       <c r="L94" s="93"/>
     </row>
-    <row r="95" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="95" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A95" s="346"/>
       <c r="B95" s="378"/>
       <c r="C95" s="155"/>
@@ -28384,7 +28409,7 @@
       <c r="K95" s="93"/>
       <c r="L95" s="93"/>
     </row>
-    <row r="96" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="96" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A96" s="346"/>
       <c r="B96" s="378" t="s">
         <v>663</v>
@@ -28410,7 +28435,7 @@
       <c r="K96" s="93"/>
       <c r="L96" s="93"/>
     </row>
-    <row r="97" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="97" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A97" s="346"/>
       <c r="B97" s="378"/>
       <c r="C97" s="155"/>
@@ -28426,7 +28451,7 @@
       <c r="K97" s="93"/>
       <c r="L97" s="93"/>
     </row>
-    <row r="98" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="98" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A98" s="346"/>
       <c r="B98" s="378" t="s">
         <v>666</v>
@@ -28452,7 +28477,7 @@
       <c r="K98" s="462"/>
       <c r="L98" s="93"/>
     </row>
-    <row r="99" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="99" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A99" s="346"/>
       <c r="B99" s="378" t="s">
         <v>723</v>
@@ -28478,7 +28503,7 @@
       <c r="K99" s="93"/>
       <c r="L99" s="93"/>
     </row>
-    <row r="100" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="100" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A100" s="346"/>
       <c r="B100" s="378"/>
       <c r="C100" s="155"/>
@@ -28492,7 +28517,7 @@
       <c r="K100" s="93"/>
       <c r="L100" s="93"/>
     </row>
-    <row r="101" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="101" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A101" s="346"/>
       <c r="B101" s="378"/>
       <c r="C101" s="155"/>
@@ -28506,7 +28531,7 @@
       <c r="K101" s="93"/>
       <c r="L101" s="93"/>
     </row>
-    <row r="102" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1">
+    <row r="102" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1">
       <c r="A102" s="346"/>
       <c r="B102" s="378"/>
       <c r="C102" s="155"/>
@@ -28520,7 +28545,7 @@
       <c r="K102" s="93"/>
       <c r="L102" s="93"/>
     </row>
-    <row r="103" spans="1:12" s="345" customFormat="1" ht="20.65" customHeight="1" thickBot="1">
+    <row r="103" spans="1:12" s="345" customFormat="1" ht="20.75" customHeight="1" thickBot="1">
       <c r="A103" s="346"/>
       <c r="B103" s="378"/>
       <c r="C103" s="155"/>
@@ -28534,14 +28559,14 @@
       <c r="K103" s="93"/>
       <c r="L103" s="93"/>
     </row>
-    <row r="104" spans="1:12" s="373" customFormat="1" ht="20.65" customHeight="1" thickTop="1" thickBot="1">
+    <row r="104" spans="1:12" s="373" customFormat="1" ht="20.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A104" s="369"/>
       <c r="B104" s="369"/>
-      <c r="C104" s="485" t="s">
+      <c r="C104" s="495" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="485"/>
-      <c r="E104" s="485"/>
+      <c r="D104" s="495"/>
+      <c r="E104" s="495"/>
       <c r="F104" s="371"/>
       <c r="G104" s="371"/>
       <c r="H104" s="166"/>
@@ -28900,11 +28925,11 @@
     <row r="120" spans="1:12" s="373" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A120" s="369"/>
       <c r="B120" s="369"/>
-      <c r="C120" s="497" t="s">
+      <c r="C120" s="485" t="s">
         <v>50</v>
       </c>
-      <c r="D120" s="497"/>
-      <c r="E120" s="497"/>
+      <c r="D120" s="485"/>
+      <c r="E120" s="485"/>
       <c r="F120" s="371"/>
       <c r="G120" s="371"/>
       <c r="H120" s="166"/>
@@ -29453,11 +29478,11 @@
     <row r="142" spans="1:13" s="373" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A142" s="369"/>
       <c r="B142" s="369"/>
-      <c r="C142" s="485" t="s">
+      <c r="C142" s="495" t="s">
         <v>120</v>
       </c>
-      <c r="D142" s="485"/>
-      <c r="E142" s="485"/>
+      <c r="D142" s="495"/>
+      <c r="E142" s="495"/>
       <c r="F142" s="371"/>
       <c r="G142" s="371"/>
       <c r="H142" s="166"/>
@@ -29594,11 +29619,11 @@
     <row r="148" spans="1:13" s="345" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A148" s="385"/>
       <c r="B148" s="421"/>
-      <c r="C148" s="486" t="s">
+      <c r="C148" s="505" t="s">
         <v>124</v>
       </c>
-      <c r="D148" s="487"/>
-      <c r="E148" s="488"/>
+      <c r="D148" s="506"/>
+      <c r="E148" s="507"/>
       <c r="F148" s="371"/>
       <c r="G148" s="371"/>
       <c r="H148" s="166"/>
@@ -29772,11 +29797,11 @@
     <row r="156" spans="1:13" s="345" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A156" s="369"/>
       <c r="B156" s="369"/>
-      <c r="C156" s="485" t="s">
+      <c r="C156" s="495" t="s">
         <v>185</v>
       </c>
-      <c r="D156" s="485"/>
-      <c r="E156" s="485"/>
+      <c r="D156" s="495"/>
+      <c r="E156" s="495"/>
       <c r="F156" s="371"/>
       <c r="G156" s="371"/>
       <c r="H156" s="166"/>
@@ -29959,11 +29984,11 @@
     <row r="164" spans="1:13" s="366" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A164" s="369"/>
       <c r="B164" s="369"/>
-      <c r="C164" s="485" t="s">
+      <c r="C164" s="495" t="s">
         <v>193</v>
       </c>
-      <c r="D164" s="485"/>
-      <c r="E164" s="485"/>
+      <c r="D164" s="495"/>
+      <c r="E164" s="495"/>
       <c r="F164" s="371"/>
       <c r="G164" s="371"/>
       <c r="H164" s="166"/>
@@ -30142,11 +30167,11 @@
     <row r="172" spans="1:13" s="366" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A172" s="369"/>
       <c r="B172" s="369"/>
-      <c r="C172" s="485" t="s">
+      <c r="C172" s="495" t="s">
         <v>211</v>
       </c>
-      <c r="D172" s="485"/>
-      <c r="E172" s="485"/>
+      <c r="D172" s="495"/>
+      <c r="E172" s="495"/>
       <c r="F172" s="371"/>
       <c r="G172" s="371"/>
       <c r="H172" s="166"/>
@@ -30189,11 +30214,11 @@
         <v>6</v>
       </c>
       <c r="G174" s="155"/>
-      <c r="H174" s="490"/>
-      <c r="I174" s="491"/>
-      <c r="J174" s="491"/>
-      <c r="K174" s="491"/>
-      <c r="L174" s="492"/>
+      <c r="H174" s="502"/>
+      <c r="I174" s="503"/>
+      <c r="J174" s="503"/>
+      <c r="K174" s="503"/>
+      <c r="L174" s="504"/>
     </row>
     <row r="175" spans="1:13" s="345" customFormat="1" ht="21" customHeight="1">
       <c r="A175" s="346"/>
@@ -30211,11 +30236,11 @@
         <v>6</v>
       </c>
       <c r="G175" s="155"/>
-      <c r="H175" s="490"/>
-      <c r="I175" s="491"/>
-      <c r="J175" s="491"/>
-      <c r="K175" s="491"/>
-      <c r="L175" s="492"/>
+      <c r="H175" s="502"/>
+      <c r="I175" s="503"/>
+      <c r="J175" s="503"/>
+      <c r="K175" s="503"/>
+      <c r="L175" s="504"/>
     </row>
     <row r="176" spans="1:13" s="345" customFormat="1" ht="21" customHeight="1">
       <c r="A176" s="346"/>
@@ -30233,11 +30258,11 @@
         <v>6</v>
       </c>
       <c r="G176" s="155"/>
-      <c r="H176" s="490"/>
-      <c r="I176" s="491"/>
-      <c r="J176" s="491"/>
-      <c r="K176" s="491"/>
-      <c r="L176" s="492"/>
+      <c r="H176" s="502"/>
+      <c r="I176" s="503"/>
+      <c r="J176" s="503"/>
+      <c r="K176" s="503"/>
+      <c r="L176" s="504"/>
     </row>
     <row r="177" spans="1:13" s="345" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="346"/>
@@ -30346,11 +30371,11 @@
     <row r="181" spans="1:13" s="335" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A181" s="369"/>
       <c r="B181" s="370"/>
-      <c r="C181" s="486" t="s">
+      <c r="C181" s="505" t="s">
         <v>289</v>
       </c>
-      <c r="D181" s="487"/>
-      <c r="E181" s="488"/>
+      <c r="D181" s="506"/>
+      <c r="E181" s="507"/>
       <c r="F181" s="369"/>
       <c r="G181" s="369"/>
       <c r="H181" s="183"/>
@@ -30365,9 +30390,9 @@
     <row r="182" spans="1:13" s="335" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="A182" s="336"/>
       <c r="B182" s="336"/>
-      <c r="C182" s="489"/>
-      <c r="D182" s="489"/>
-      <c r="E182" s="489"/>
+      <c r="C182" s="508"/>
+      <c r="D182" s="508"/>
+      <c r="E182" s="508"/>
       <c r="F182" s="185"/>
       <c r="G182" s="185"/>
       <c r="H182" s="186"/>
@@ -30381,9 +30406,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" thickTop="1"/>
+    <row r="183" spans="1:13" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="H174:L174"/>
+    <mergeCell ref="H175:L175"/>
+    <mergeCell ref="H176:L176"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C181:E181"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="C120:E120"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
@@ -30397,21 +30437,6 @@
     <mergeCell ref="J75:K75"/>
     <mergeCell ref="J76:K76"/>
     <mergeCell ref="C104:E104"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H174:L174"/>
-    <mergeCell ref="H175:L175"/>
-    <mergeCell ref="H176:L176"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C181:E181"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C182:E182"/>
   </mergeCells>
   <phoneticPr fontId="105" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.15748031496062992" top="0.24" bottom="0.2" header="0.16" footer="0.15748031496062992"/>
@@ -30430,20 +30455,20 @@
       <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="189" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="328" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="189" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="189" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="189" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="328" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="189" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="189" customWidth="1"/>
     <col min="5" max="5" width="35.5" style="189" customWidth="1"/>
-    <col min="6" max="7" width="6.25" style="189" customWidth="1"/>
+    <col min="6" max="7" width="6.1640625" style="189" customWidth="1"/>
     <col min="8" max="11" width="9.5" style="189" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="189" customWidth="1"/>
     <col min="13" max="16384" width="9" style="189"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
+    <row r="1" spans="1:12" ht="21">
       <c r="A1" s="63"/>
       <c r="B1" s="337"/>
       <c r="C1" s="58" t="s">
@@ -30461,7 +30486,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" ht="23.25">
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" s="63"/>
       <c r="B2" s="338"/>
       <c r="C2" s="58" t="s">
@@ -30479,7 +30504,7 @@
       <c r="K2" s="66"/>
       <c r="L2" s="67"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25">
+    <row r="3" spans="1:12" ht="21">
       <c r="A3" s="63"/>
       <c r="B3" s="338"/>
       <c r="C3" s="58" t="s">
@@ -30497,7 +30522,7 @@
       <c r="K3" s="66"/>
       <c r="L3" s="67"/>
     </row>
-    <row r="4" spans="1:12" ht="24" thickBot="1">
+    <row r="4" spans="1:12" ht="22" thickBot="1">
       <c r="A4" s="190"/>
       <c r="B4" s="327"/>
       <c r="C4" s="191"/>
@@ -30511,7 +30536,7 @@
       <c r="K4" s="194"/>
       <c r="L4" s="195"/>
     </row>
-    <row r="5" spans="1:12" ht="23.25" thickTop="1">
+    <row r="5" spans="1:12" ht="21" thickTop="1">
       <c r="A5" s="512" t="s">
         <v>7</v>
       </c>
@@ -30523,20 +30548,20 @@
       </c>
       <c r="D5" s="512"/>
       <c r="E5" s="512"/>
-      <c r="F5" s="493" t="s">
+      <c r="F5" s="498" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="493" t="s">
+      <c r="G5" s="498" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="505" t="s">
+      <c r="H5" s="493" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="506"/>
-      <c r="J5" s="505" t="s">
+      <c r="I5" s="494"/>
+      <c r="J5" s="493" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="506"/>
+      <c r="K5" s="494"/>
       <c r="L5" s="88" t="s">
         <v>27</v>
       </c>
@@ -30547,8 +30572,8 @@
       <c r="C6" s="512"/>
       <c r="D6" s="512"/>
       <c r="E6" s="512"/>
-      <c r="F6" s="495"/>
-      <c r="G6" s="496"/>
+      <c r="F6" s="500"/>
+      <c r="G6" s="501"/>
       <c r="H6" s="90" t="s">
         <v>22</v>
       </c>
@@ -30621,7 +30646,7 @@
       <c r="K9" s="207"/>
       <c r="L9" s="208"/>
     </row>
-    <row r="10" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="10" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A10" s="352"/>
       <c r="B10" s="353"/>
       <c r="C10" s="351" t="s">
@@ -30637,7 +30662,7 @@
       <c r="K10" s="207"/>
       <c r="L10" s="208"/>
     </row>
-    <row r="11" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="11" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A11" s="411"/>
       <c r="B11" s="354" t="s">
         <v>304</v>
@@ -30661,7 +30686,7 @@
       <c r="K11" s="207"/>
       <c r="L11" s="208"/>
     </row>
-    <row r="12" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="12" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A12" s="411"/>
       <c r="B12" s="354" t="s">
         <v>304</v>
@@ -30683,7 +30708,7 @@
       <c r="K12" s="207"/>
       <c r="L12" s="208"/>
     </row>
-    <row r="13" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="13" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A13" s="411"/>
       <c r="B13" s="354" t="s">
         <v>439</v>
@@ -30709,7 +30734,7 @@
       <c r="K13" s="207"/>
       <c r="L13" s="208"/>
     </row>
-    <row r="14" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="14" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A14" s="411"/>
       <c r="B14" s="354" t="s">
         <v>508</v>
@@ -30735,7 +30760,7 @@
       <c r="K14" s="207"/>
       <c r="L14" s="208"/>
     </row>
-    <row r="15" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="15" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A15" s="411"/>
       <c r="B15" s="354"/>
       <c r="C15" s="355"/>
@@ -30751,7 +30776,7 @@
       <c r="K15" s="207"/>
       <c r="L15" s="208"/>
     </row>
-    <row r="16" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="16" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A16" s="411"/>
       <c r="B16" s="354"/>
       <c r="C16" s="355" t="s">
@@ -30775,7 +30800,7 @@
       <c r="K16" s="207"/>
       <c r="L16" s="208"/>
     </row>
-    <row r="17" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="17" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A17" s="411"/>
       <c r="B17" s="354"/>
       <c r="C17" s="355" t="s">
@@ -30799,7 +30824,7 @@
       <c r="K17" s="207"/>
       <c r="L17" s="208"/>
     </row>
-    <row r="18" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="18" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A18" s="411"/>
       <c r="B18" s="354"/>
       <c r="C18" s="355" t="s">
@@ -30823,7 +30848,7 @@
       <c r="K18" s="207"/>
       <c r="L18" s="208"/>
     </row>
-    <row r="19" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="19" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A19" s="411"/>
       <c r="B19" s="354"/>
       <c r="C19" s="355" t="s">
@@ -30845,7 +30870,7 @@
       <c r="K19" s="207"/>
       <c r="L19" s="208"/>
     </row>
-    <row r="20" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="20" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A20" s="411"/>
       <c r="B20" s="354"/>
       <c r="C20" s="355"/>
@@ -30943,7 +30968,7 @@
       <c r="K24" s="207"/>
       <c r="L24" s="208"/>
     </row>
-    <row r="25" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="25" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A25" s="196"/>
       <c r="B25" s="362" t="s">
         <v>292</v>
@@ -30969,7 +30994,7 @@
       <c r="K25" s="207"/>
       <c r="L25" s="208"/>
     </row>
-    <row r="26" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="26" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A26" s="196"/>
       <c r="B26" s="362" t="s">
         <v>383</v>
@@ -30995,7 +31020,7 @@
       <c r="K26" s="207"/>
       <c r="L26" s="208"/>
     </row>
-    <row r="27" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="27" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A27" s="196"/>
       <c r="B27" s="362" t="s">
         <v>292</v>
@@ -31021,7 +31046,7 @@
       <c r="K27" s="207"/>
       <c r="L27" s="208"/>
     </row>
-    <row r="28" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="28" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A28" s="196"/>
       <c r="B28" s="362"/>
       <c r="C28" s="203"/>
@@ -31037,7 +31062,7 @@
       <c r="K28" s="207"/>
       <c r="L28" s="208"/>
     </row>
-    <row r="29" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="29" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A29" s="196"/>
       <c r="B29" s="362" t="s">
         <v>199</v>
@@ -31063,7 +31088,7 @@
       <c r="K29" s="207"/>
       <c r="L29" s="208"/>
     </row>
-    <row r="30" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="30" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A30" s="196"/>
       <c r="B30" s="362"/>
       <c r="C30" s="203"/>
@@ -31515,7 +31540,7 @@
       <c r="K47" s="207"/>
       <c r="L47" s="208"/>
     </row>
-    <row r="48" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="48" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A48" s="196"/>
       <c r="B48" s="426" t="s">
         <v>303</v>
@@ -31541,7 +31566,7 @@
       <c r="K48" s="207"/>
       <c r="L48" s="208"/>
     </row>
-    <row r="49" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="49" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A49" s="196"/>
       <c r="B49" s="435" t="s">
         <v>391</v>
@@ -31781,7 +31806,7 @@
       <c r="K58" s="207"/>
       <c r="L58" s="208"/>
     </row>
-    <row r="59" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="59" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A59" s="358"/>
       <c r="B59" s="359"/>
       <c r="C59" s="241" t="s">
@@ -31797,7 +31822,7 @@
       <c r="K59" s="207"/>
       <c r="L59" s="208"/>
     </row>
-    <row r="60" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="60" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A60" s="221"/>
       <c r="B60" s="243" t="s">
         <v>258</v>
@@ -31823,7 +31848,7 @@
       <c r="K60" s="207"/>
       <c r="L60" s="208"/>
     </row>
-    <row r="61" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="61" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A61" s="196"/>
       <c r="B61" s="412" t="s">
         <v>199</v>
@@ -31849,7 +31874,7 @@
       <c r="K61" s="207"/>
       <c r="L61" s="208"/>
     </row>
-    <row r="62" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="62" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A62" s="196"/>
       <c r="B62" s="412"/>
       <c r="C62" s="203"/>
@@ -31865,7 +31890,7 @@
       <c r="K62" s="207"/>
       <c r="L62" s="208"/>
     </row>
-    <row r="63" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="63" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A63" s="438"/>
       <c r="B63" s="412"/>
       <c r="C63" s="241" t="s">
@@ -31881,7 +31906,7 @@
       <c r="K63" s="207"/>
       <c r="L63" s="208"/>
     </row>
-    <row r="64" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="64" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A64" s="438"/>
       <c r="B64" s="412" t="s">
         <v>454</v>
@@ -31907,7 +31932,7 @@
       <c r="K64" s="207"/>
       <c r="L64" s="208"/>
     </row>
-    <row r="65" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="65" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A65" s="438"/>
       <c r="B65" s="412"/>
       <c r="C65" s="203"/>
@@ -31923,7 +31948,7 @@
       <c r="K65" s="207"/>
       <c r="L65" s="208"/>
     </row>
-    <row r="66" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="66" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A66" s="438"/>
       <c r="B66" s="412" t="s">
         <v>455</v>
@@ -31949,7 +31974,7 @@
       <c r="K66" s="207"/>
       <c r="L66" s="208"/>
     </row>
-    <row r="67" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="67" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A67" s="438"/>
       <c r="B67" s="412"/>
       <c r="C67" s="203"/>
@@ -31965,7 +31990,7 @@
       <c r="K67" s="207"/>
       <c r="L67" s="208"/>
     </row>
-    <row r="68" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="68" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A68" s="438"/>
       <c r="B68" s="412" t="s">
         <v>623</v>
@@ -31991,7 +32016,7 @@
       <c r="K68" s="207"/>
       <c r="L68" s="208"/>
     </row>
-    <row r="69" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="69" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A69" s="438"/>
       <c r="B69" s="412"/>
       <c r="C69" s="450"/>
@@ -32007,7 +32032,7 @@
       <c r="K69" s="207"/>
       <c r="L69" s="208"/>
     </row>
-    <row r="70" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="70" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A70" s="438"/>
       <c r="B70" s="412"/>
       <c r="C70" s="450"/>
@@ -32021,7 +32046,7 @@
       <c r="K70" s="207"/>
       <c r="L70" s="208"/>
     </row>
-    <row r="71" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="71" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A71" s="438"/>
       <c r="B71" s="412"/>
       <c r="C71" s="241" t="s">
@@ -32037,7 +32062,7 @@
       <c r="K71" s="207"/>
       <c r="L71" s="208"/>
     </row>
-    <row r="72" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="72" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A72" s="438"/>
       <c r="B72" s="412" t="s">
         <v>577</v>
@@ -32059,7 +32084,7 @@
       <c r="K72" s="207"/>
       <c r="L72" s="208"/>
     </row>
-    <row r="73" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="73" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A73" s="438"/>
       <c r="B73" s="412"/>
       <c r="C73" s="241"/>
@@ -32075,7 +32100,7 @@
       <c r="K73" s="207"/>
       <c r="L73" s="208"/>
     </row>
-    <row r="74" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="74" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A74" s="438"/>
       <c r="B74" s="412" t="s">
         <v>459</v>
@@ -32097,7 +32122,7 @@
       <c r="K74" s="207"/>
       <c r="L74" s="208"/>
     </row>
-    <row r="75" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="75" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A75" s="438"/>
       <c r="B75" s="412" t="s">
         <v>461</v>
@@ -32119,7 +32144,7 @@
       <c r="K75" s="207"/>
       <c r="L75" s="208"/>
     </row>
-    <row r="76" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="76" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A76" s="438"/>
       <c r="B76" s="412" t="s">
         <v>162</v>
@@ -32141,7 +32166,7 @@
       <c r="K76" s="207"/>
       <c r="L76" s="208"/>
     </row>
-    <row r="77" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="77" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A77" s="438"/>
       <c r="B77" s="412" t="s">
         <v>89</v>
@@ -32163,7 +32188,7 @@
       <c r="K77" s="207"/>
       <c r="L77" s="208"/>
     </row>
-    <row r="78" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="78" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A78" s="438"/>
       <c r="B78" s="412" t="s">
         <v>462</v>
@@ -32185,7 +32210,7 @@
       <c r="K78" s="207"/>
       <c r="L78" s="208"/>
     </row>
-    <row r="79" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="79" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A79" s="438"/>
       <c r="B79" s="412" t="s">
         <v>85</v>
@@ -32207,7 +32232,7 @@
       <c r="K79" s="207"/>
       <c r="L79" s="208"/>
     </row>
-    <row r="80" spans="1:12" s="202" customFormat="1" ht="21">
+    <row r="80" spans="1:12" s="202" customFormat="1" ht="18">
       <c r="A80" s="438"/>
       <c r="B80" s="412" t="s">
         <v>86</v>
@@ -32229,7 +32254,7 @@
       <c r="K80" s="207"/>
       <c r="L80" s="208"/>
     </row>
-    <row r="81" spans="1:12" s="202" customFormat="1" ht="21.75" thickBot="1">
+    <row r="81" spans="1:12" s="202" customFormat="1" ht="19" thickBot="1">
       <c r="A81" s="438"/>
       <c r="B81" s="412"/>
       <c r="C81" s="203"/>
@@ -32259,7 +32284,7 @@
       <c r="K82" s="73"/>
       <c r="L82" s="74"/>
     </row>
-    <row r="83" spans="1:12" ht="23.25" thickTop="1"/>
+    <row r="83" spans="1:12" ht="21" thickTop="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C82:E82"/>
@@ -32288,17 +32313,17 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="22.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.5" style="189" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="332" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="332" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="189" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="189" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="189" customWidth="1"/>
     <col min="5" max="5" width="40" style="189" customWidth="1"/>
-    <col min="6" max="7" width="6.375" style="189" customWidth="1"/>
-    <col min="8" max="11" width="10.125" style="189" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="189" customWidth="1"/>
-    <col min="13" max="16384" width="7.25" style="189"/>
+    <col min="6" max="7" width="6.33203125" style="189" customWidth="1"/>
+    <col min="8" max="11" width="10.1640625" style="189" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="189" customWidth="1"/>
+    <col min="13" max="16384" width="7.1640625" style="189"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1">
@@ -32383,7 +32408,7 @@
       <c r="K5" s="215"/>
       <c r="L5" s="216"/>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickTop="1">
+    <row r="6" spans="1:12" ht="14" customHeight="1" thickTop="1">
       <c r="A6" s="59"/>
       <c r="B6" s="329"/>
       <c r="C6" s="59"/>
@@ -33031,7 +33056,7 @@
       <c r="K37" s="73"/>
       <c r="L37" s="74"/>
     </row>
-    <row r="38" spans="1:12" ht="23.25" thickTop="1"/>
+    <row r="38" spans="1:12" ht="21" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D10:E10"/>
@@ -33062,17 +33087,17 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="22.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="5.5" style="189" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="332" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="332" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="189" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="189" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" style="189" customWidth="1"/>
     <col min="5" max="5" width="40" style="189" customWidth="1"/>
-    <col min="6" max="7" width="6.375" style="189" customWidth="1"/>
-    <col min="8" max="11" width="10.125" style="189" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="189" customWidth="1"/>
-    <col min="13" max="16384" width="7.25" style="189"/>
+    <col min="6" max="7" width="6.33203125" style="189" customWidth="1"/>
+    <col min="8" max="11" width="10.1640625" style="189" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" style="189" customWidth="1"/>
+    <col min="13" max="16384" width="7.1640625" style="189"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1">
@@ -33157,7 +33182,7 @@
       <c r="K5" s="215"/>
       <c r="L5" s="216"/>
     </row>
-    <row r="6" spans="1:12" ht="13.9" customHeight="1" thickTop="1">
+    <row r="6" spans="1:12" ht="14" customHeight="1" thickTop="1">
       <c r="A6" s="59"/>
       <c r="B6" s="329"/>
       <c r="C6" s="59"/>
@@ -33518,7 +33543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="23.25" thickTop="1"/>
+    <row r="24" spans="1:12" ht="21" thickTop="1"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C23:E23"/>
@@ -33538,6 +33563,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d3805d4-0058-47e7-ada3-a26f97340a47">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d5355fe6-6253-4505-bf36-67b865bc17f4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x0101003A5F16F536755F4CA566E2EF95710BD1" ma:contentTypeVersion="13" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="da320c0a6fb3a99ab42ca6b81b163711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d3805d4-0058-47e7-ada3-a26f97340a47" xmlns:ns3="d5355fe6-6253-4505-bf36-67b865bc17f4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d4af8e47d0023333b27a41c7e348c78" ns2:_="" ns3:_="">
     <xsd:import namespace="5d3805d4-0058-47e7-ada3-a26f97340a47"/>
@@ -33744,27 +33789,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD92C2B0-7761-46DA-8154-608880C7DF93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d3805d4-0058-47e7-ada3-a26f97340a47"/>
+    <ds:schemaRef ds:uri="d5355fe6-6253-4505-bf36-67b865bc17f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d3805d4-0058-47e7-ada3-a26f97340a47">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d5355fe6-6253-4505-bf36-67b865bc17f4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F4BF85-D2B4-4873-826A-D62A88F7FB8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCB429A-7ABD-45A5-827D-25F5F3D51A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33781,23 +33825,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F4BF85-D2B4-4873-826A-D62A88F7FB8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD92C2B0-7761-46DA-8154-608880C7DF93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d3805d4-0058-47e7-ada3-a26f97340a47"/>
-    <ds:schemaRef ds:uri="d5355fe6-6253-4505-bf36-67b865bc17f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>